--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2023.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2023.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,13 +415,13 @@
         <v>Taxe/avance</v>
       </c>
       <c r="L1" t="str">
+        <v>MT brut (Rappel)</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Taxe (Rappel)</v>
+      </c>
+      <c r="N1" t="str">
         <v>Caution</v>
-      </c>
-      <c r="M1" t="str">
-        <v>MT brut (Rappel)</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Taxe (Rappel)</v>
       </c>
       <c r="O1" t="str">
         <v>MT net</v>
@@ -429,16 +429,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>332/AG FES1/AV1</v>
+        <v>901/FES /AV2</v>
       </c>
       <c r="B2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C2" t="str">
-        <v>J25458</v>
+        <v>J207703</v>
       </c>
       <c r="D2" t="str">
-        <v>OUMAIMA DAD</v>
+        <v>ACHENGLI LAILA</v>
       </c>
       <c r="E2" t="str">
         <v>non</v>
@@ -447,45 +447,45 @@
         <v>mensuelle</v>
       </c>
       <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2" t="str">
-        <v>--</v>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>6000</v>
       </c>
       <c r="I2">
-        <v>36000</v>
-      </c>
-      <c r="J2" t="str">
-        <v>--</v>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>600</v>
       </c>
       <c r="K2">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="N2" t="str">
         <v>--</v>
       </c>
       <c r="O2">
-        <v>30600</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>332/AG FES1/AV1</v>
+        <v>300/LF/DR1/AV1</v>
       </c>
       <c r="B3" t="str">
-        <v>Point de vente</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="C3" t="str">
-        <v>K254546</v>
+        <v>K6563</v>
       </c>
       <c r="D3" t="str">
-        <v>MANAL JAJA</v>
+        <v>UIHYIH OOKOK</v>
       </c>
       <c r="E3" t="str">
         <v>non</v>
@@ -494,45 +494,45 @@
         <v>mensuelle</v>
       </c>
       <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="str">
-        <v>--</v>
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>20000</v>
       </c>
       <c r="I3">
-        <v>24000</v>
-      </c>
-      <c r="J3" t="str">
-        <v>--</v>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3000</v>
       </c>
       <c r="K3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="N3" t="str">
         <v>--</v>
       </c>
       <c r="O3">
-        <v>21600</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>332/AG FES1/AV1</v>
+        <v>800/SUP 1</v>
       </c>
       <c r="B4" t="str">
-        <v>Point de vente</v>
+        <v>Supervision</v>
       </c>
       <c r="C4" t="str">
-        <v>J25458</v>
+        <v>J2545456</v>
       </c>
       <c r="D4" t="str">
-        <v>OUMAIMA DAD</v>
+        <v>JALAL MED</v>
       </c>
       <c r="E4" t="str">
         <v>non</v>
@@ -541,45 +541,45 @@
         <v>mensuelle</v>
       </c>
       <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4" t="str">
-        <v>--</v>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>8000</v>
       </c>
       <c r="I4">
-        <v>36000</v>
-      </c>
-      <c r="J4" t="str">
-        <v>--</v>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>800</v>
       </c>
       <c r="K4">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="N4" t="str">
         <v>--</v>
       </c>
       <c r="O4">
-        <v>10200</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>332/AG FES1/AV1</v>
+        <v>300/DR1/AV1</v>
       </c>
       <c r="B5" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C5" t="str">
-        <v>K254546</v>
+        <v>H354534</v>
       </c>
       <c r="D5" t="str">
-        <v>MANAL JAJA</v>
+        <v xml:space="preserve">VAVA FAFA </v>
       </c>
       <c r="E5" t="str">
         <v>non</v>
@@ -588,45 +588,45 @@
         <v>mensuelle</v>
       </c>
       <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5" t="str">
-        <v>--</v>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1500</v>
       </c>
       <c r="I5">
-        <v>24000</v>
-      </c>
-      <c r="J5" t="str">
-        <v>--</v>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="N5" t="str">
         <v>--</v>
       </c>
       <c r="O5">
-        <v>7200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>332/AG FES1/AV1</v>
+        <v xml:space="preserve">901/LF/FES </v>
       </c>
       <c r="B6" t="str">
-        <v>Point de vente</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="C6" t="str">
-        <v>J25458</v>
+        <v>BJ36877</v>
       </c>
       <c r="D6" t="str">
-        <v>OUMAIMA DAD</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="E6" t="str">
         <v>non</v>
@@ -635,19 +635,19 @@
         <v>mensuelle</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="I6">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K6">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,42 +659,42 @@
         <v>--</v>
       </c>
       <c r="O6">
-        <v>10200</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>332/AG FES1/AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B7" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C7" t="str">
-        <v>K254546</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D7" t="str">
-        <v>MANAL JAJA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E7" t="str">
-        <v>non</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G7" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H7">
-        <v>8000</v>
+        <v>41500</v>
       </c>
       <c r="I7">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="K7">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -702,439 +702,16 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" t="str">
-        <v>--</v>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v xml:space="preserve">501/LF/CASA NORD </v>
-      </c>
-      <c r="B8" t="str">
-        <v>Logement de fonction</v>
-      </c>
-      <c r="C8" t="str">
-        <v>K254564</v>
-      </c>
-      <c r="D8" t="str">
-        <v>NABIL HARTI</v>
-      </c>
-      <c r="E8" t="str">
-        <v>non</v>
-      </c>
-      <c r="F8" t="str">
-        <v>annuelle</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8" t="str">
-        <v>--</v>
-      </c>
-      <c r="I8">
-        <v>150000</v>
-      </c>
-      <c r="J8" t="str">
-        <v>--</v>
-      </c>
-      <c r="K8">
-        <v>22500</v>
-      </c>
-      <c r="L8">
-        <v>150000</v>
-      </c>
-      <c r="M8">
-        <v>22500</v>
-      </c>
-      <c r="N8" t="str">
-        <v>--</v>
-      </c>
-      <c r="O8">
-        <v>127500</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v xml:space="preserve">501/LF/CASA NORD </v>
-      </c>
-      <c r="B9" t="str">
-        <v>Logement de fonction</v>
-      </c>
-      <c r="C9" t="str">
-        <v>K254564</v>
-      </c>
-      <c r="D9" t="str">
-        <v>NABIL HARTI</v>
-      </c>
-      <c r="E9" t="str">
-        <v>non</v>
-      </c>
-      <c r="F9" t="str">
-        <v>annuelle</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>150000</v>
-      </c>
-      <c r="I9">
-        <v>150000</v>
-      </c>
-      <c r="J9">
-        <v>22500</v>
-      </c>
-      <c r="K9">
-        <v>22500</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>127500</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>966/RABAT SUP1/AV1</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="C10" t="str">
-        <v>L5453746</v>
-      </c>
-      <c r="D10" t="str">
-        <v>MERYEM RARA</v>
-      </c>
-      <c r="E10" t="str">
-        <v>non</v>
-      </c>
-      <c r="F10" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>3000</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>300</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="str">
-        <v>--</v>
-      </c>
-      <c r="O10">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>966/RABAT SUP1/AV1</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="C11" t="str">
-        <v>KL254545</v>
-      </c>
-      <c r="D11" t="str">
-        <v>LAILA JJJJ</v>
-      </c>
-      <c r="E11" t="str">
-        <v>non</v>
-      </c>
-      <c r="F11" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>4500</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>450</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="str">
-        <v>--</v>
-      </c>
-      <c r="O11">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>966/RABAT SUP1/AV1</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="C12" t="str">
-        <v>354643</v>
-      </c>
-      <c r="D12" t="str">
-        <v>STE LOC 10</v>
-      </c>
-      <c r="E12" t="str">
-        <v>oui</v>
-      </c>
-      <c r="F12" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>7500</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="str">
-        <v>--</v>
-      </c>
-      <c r="O12">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>222/RABAT /AV1</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="C13" t="str">
-        <v>K2574857</v>
-      </c>
-      <c r="D13" t="str">
-        <v>NADIA JJEE</v>
-      </c>
-      <c r="E13" t="str">
-        <v>non</v>
-      </c>
-      <c r="F13" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="H13">
-        <v>13333.33</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>2000</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="str">
-        <v>--</v>
-      </c>
-      <c r="O13">
-        <v>11333.33</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>222/RABAT /AV1</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="C14" t="str">
-        <v>F4767464</v>
-      </c>
-      <c r="D14" t="str">
-        <v xml:space="preserve">MED FARID </v>
-      </c>
-      <c r="E14" t="str">
-        <v>non</v>
-      </c>
-      <c r="F14" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1666.67</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="str">
-        <v>--</v>
-      </c>
-      <c r="O14">
-        <v>1666.67</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>222/RABAT /AV1</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="C15" t="str">
-        <v>M564634</v>
-      </c>
-      <c r="D15" t="str">
-        <v>LATIFA FIFA</v>
-      </c>
-      <c r="E15" t="str">
-        <v>non</v>
-      </c>
-      <c r="F15" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>5000</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>500</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="str">
-        <v>--</v>
-      </c>
-      <c r="O15">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B16" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C16" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D16" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E16" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F16" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G16" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H16">
-        <v>205000</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>28350</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>230000</v>
-      </c>
-      <c r="N16">
-        <v>32900</v>
-      </c>
-      <c r="O16">
-        <v>373750</v>
+        <v>36500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2023.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2023.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,16 +429,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>901/FES /AV2</v>
+        <v xml:space="preserve">114/FES </v>
       </c>
       <c r="B2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="C2" t="str">
-        <v>J207703</v>
+        <v>5665653</v>
       </c>
       <c r="D2" t="str">
-        <v>ACHENGLI LAILA</v>
+        <v>KJKKOPPP JKLML</v>
       </c>
       <c r="E2" t="str">
         <v>non</v>
@@ -450,13 +450,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,21 +471,21 @@
         <v>--</v>
       </c>
       <c r="O2">
-        <v>5400</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>300/LF/DR1/AV1</v>
+        <v>233/DR1</v>
       </c>
       <c r="B3" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C3" t="str">
-        <v>K6563</v>
+        <v>H354534</v>
       </c>
       <c r="D3" t="str">
-        <v>UIHYIH OOKOK</v>
+        <v xml:space="preserve">VAVA FAFA </v>
       </c>
       <c r="E3" t="str">
         <v>non</v>
@@ -494,16 +494,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,21 +518,21 @@
         <v>--</v>
       </c>
       <c r="O3">
-        <v>17000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>800/SUP 1</v>
+        <v>220/CASA NORD</v>
       </c>
       <c r="B4" t="str">
-        <v>Supervision</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C4" t="str">
-        <v>J2545456</v>
+        <v>BJ36877</v>
       </c>
       <c r="D4" t="str">
-        <v>JALAL MED</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="E4" t="str">
         <v>non</v>
@@ -541,16 +541,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,21 +565,21 @@
         <v>--</v>
       </c>
       <c r="O4">
-        <v>7200</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>300/DR1/AV1</v>
+        <v>220/LF/CASA NORD</v>
       </c>
       <c r="B5" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="C5" t="str">
-        <v>H354534</v>
+        <v>J2545456</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve">VAVA FAFA </v>
+        <v>JALAL MED</v>
       </c>
       <c r="E5" t="str">
         <v>non</v>
@@ -588,16 +588,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -612,39 +612,39 @@
         <v>--</v>
       </c>
       <c r="O5">
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve">901/LF/FES </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" t="str">
-        <v>Logement de fonction</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <v>BJ36877</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
-        <v>CHARIJI ABDELLAH</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v>non</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6">
-        <v>6000</v>
+        <v>28500</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>600</v>
+        <v>3450</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -655,63 +655,16 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" t="str">
-        <v>--</v>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H7">
-        <v>41500</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>5000</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>36500</v>
+        <v>25050</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2023.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2023.xlsx
@@ -429,34 +429,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">114/FES </v>
+        <v>052/FKIH BEN SALEH</v>
       </c>
       <c r="B2" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="C2" t="str">
-        <v>5665653</v>
+        <v>IB19558</v>
       </c>
       <c r="D2" t="str">
-        <v>KJKKOPPP JKLML</v>
+        <v>ZERNAKH ABDELLAH</v>
       </c>
       <c r="E2" t="str">
-        <v>non</v>
+        <v>oui</v>
       </c>
       <c r="F2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>6500</v>
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,39 +471,39 @@
         <v>--</v>
       </c>
       <c r="O2">
-        <v>5850</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>233/DR1</v>
+        <v>052/FKIH BEN SALEH</v>
       </c>
       <c r="B3" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="C3" t="str">
-        <v>H354534</v>
+        <v>IB43905</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve">VAVA FAFA </v>
+        <v>NHILA BELGACEM</v>
       </c>
       <c r="E3" t="str">
-        <v>non</v>
+        <v>oui</v>
       </c>
       <c r="F3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>5000</v>
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,21 +518,21 @@
         <v>--</v>
       </c>
       <c r="O3">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>220/CASA NORD</v>
+        <v>905/TADLA OUARDIGHA ZAYANE</v>
       </c>
       <c r="B4" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="C4" t="str">
-        <v>BJ36877</v>
+        <v>Q251990</v>
       </c>
       <c r="D4" t="str">
-        <v>CHARIJI ABDELLAH</v>
+        <v>NOUBAIL MOUNTASSIR</v>
       </c>
       <c r="E4" t="str">
         <v>non</v>
@@ -541,16 +541,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>12000</v>
+        <v>10</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1800</v>
+        <v>675</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,21 +565,21 @@
         <v>--</v>
       </c>
       <c r="O4">
-        <v>10200</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>220/LF/CASA NORD</v>
+        <v>905/TADLA OUARDIGHA ZAYANE</v>
       </c>
       <c r="B5" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C5" t="str">
-        <v>J2545456</v>
+        <v>IR801997</v>
       </c>
       <c r="D5" t="str">
-        <v>JALAL MED</v>
+        <v>NOUBAIL MOHAMMED</v>
       </c>
       <c r="E5" t="str">
         <v>non</v>
@@ -590,14 +590,14 @@
       <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>5000</v>
+      <c r="H5" t="b">
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>--</v>
       </c>
       <c r="O5">
-        <v>4500</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="6">
@@ -638,13 +638,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6">
-        <v>28500</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3450</v>
+        <v>1350</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25050</v>
+        <v>23150</v>
       </c>
     </row>
   </sheetData>

--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2023.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_2_2023.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,34 +429,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>052/FKIH BEN SALEH</v>
+        <v>905/TADLA OUARDIGHA ZAYANE</v>
       </c>
       <c r="B2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C2" t="str">
-        <v>IB19558</v>
+        <v>Q251990</v>
       </c>
       <c r="D2" t="str">
-        <v>ZERNAKH ABDELLAH</v>
+        <v>NOUBAIL MOUNTASSIR</v>
       </c>
       <c r="E2" t="str">
-        <v>oui</v>
+        <v>non</v>
       </c>
       <c r="F2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>6750</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,39 +471,39 @@
         <v>--</v>
       </c>
       <c r="O2">
-        <v>11000</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>052/FKIH BEN SALEH</v>
+        <v>905/TADLA OUARDIGHA ZAYANE</v>
       </c>
       <c r="B3" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="C3" t="str">
-        <v>IB43905</v>
+        <v>IR801997</v>
       </c>
       <c r="D3" t="str">
-        <v>NHILA BELGACEM</v>
+        <v>NOUBAIL MOHAMMED</v>
       </c>
       <c r="E3" t="str">
-        <v>oui</v>
+        <v>non</v>
       </c>
       <c r="F3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>6750</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,21 +518,21 @@
         <v>--</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>905/TADLA OUARDIGHA ZAYANE</v>
+        <v>605/KHOURIBGA NAHDA</v>
       </c>
       <c r="B4" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="C4" t="str">
-        <v>Q251990</v>
+        <v>I83603</v>
       </c>
       <c r="D4" t="str">
-        <v>NOUBAIL MOUNTASSIR</v>
+        <v>MOHAMED BADRANE</v>
       </c>
       <c r="E4" t="str">
         <v>non</v>
@@ -541,16 +541,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>446.42</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,21 +565,21 @@
         <v>--</v>
       </c>
       <c r="O4">
-        <v>6075</v>
+        <v>446.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>905/TADLA OUARDIGHA ZAYANE</v>
+        <v>605/KHOURIBGA NAHDA</v>
       </c>
       <c r="B5" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="C5" t="str">
-        <v>IR801997</v>
+        <v>B219321</v>
       </c>
       <c r="D5" t="str">
-        <v>NOUBAIL MOHAMMED</v>
+        <v>JEMAA HORMI</v>
       </c>
       <c r="E5" t="str">
         <v>non</v>
@@ -588,16 +588,16 @@
         <v>mensuelle</v>
       </c>
       <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1250</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -612,59 +612,623 @@
         <v>--</v>
       </c>
       <c r="O5">
-        <v>6075</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>605/KHOURIBGA NAHDA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="C6" t="str">
+        <v>BK646476</v>
+      </c>
+      <c r="D6" t="str">
+        <v>DOUNIA LAMKADDAM</v>
+      </c>
+      <c r="E6" t="str">
+        <v>non</v>
+      </c>
+      <c r="F6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>937.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="str">
+        <v>--</v>
+      </c>
+      <c r="O6">
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>605/KHOURIBGA NAHDA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="C7" t="str">
+        <v>CIN605</v>
+      </c>
+      <c r="D7" t="str">
+        <v>SOFIA BADRANE</v>
+      </c>
+      <c r="E7" t="str">
+        <v>non</v>
+      </c>
+      <c r="F7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>3750</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>375</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="str">
+        <v>--</v>
+      </c>
+      <c r="O7">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>605/KHOURIBGA NAHDA</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="C8" t="str">
+        <v>I150156</v>
+      </c>
+      <c r="D8" t="str">
+        <v>LATIFA BADRANE</v>
+      </c>
+      <c r="E8" t="str">
+        <v>non</v>
+      </c>
+      <c r="F8" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>223.21</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="str">
+        <v>--</v>
+      </c>
+      <c r="O8">
+        <v>223.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>605/KHOURIBGA NAHDA</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="C9" t="str">
+        <v>B171710</v>
+      </c>
+      <c r="D9" t="str">
+        <v>NADIA BADRANE</v>
+      </c>
+      <c r="E9" t="str">
+        <v>non</v>
+      </c>
+      <c r="F9" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>223.21</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="str">
+        <v>--</v>
+      </c>
+      <c r="O9">
+        <v>223.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>605/KHOURIBGA NAHDA</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Q194939</v>
+      </c>
+      <c r="D10" t="str">
+        <v>OUAFA BADRANE</v>
+      </c>
+      <c r="E10" t="str">
+        <v>non</v>
+      </c>
+      <c r="F10" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>223.21</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="str">
+        <v>--</v>
+      </c>
+      <c r="O10">
+        <v>223.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>605/KHOURIBGA NAHDA</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="C11" t="str">
+        <v>I210578</v>
+      </c>
+      <c r="D11" t="str">
+        <v>SAID BADRANE</v>
+      </c>
+      <c r="E11" t="str">
+        <v>non</v>
+      </c>
+      <c r="F11" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>446.45</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="str">
+        <v>--</v>
+      </c>
+      <c r="O11">
+        <v>446.45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>052/FKIH BEN SALEH/AV1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="C12" t="str">
+        <v>IB19558</v>
+      </c>
+      <c r="D12" t="str">
+        <v>ZERNAKH ABDELLAH</v>
+      </c>
+      <c r="E12" t="str">
+        <v>oui</v>
+      </c>
+      <c r="F12" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>12000</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="str">
+        <v>--</v>
+      </c>
+      <c r="O12">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>905/LF/TADLA OUARDIGHA ZAYANE</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>NASIRI HASNAA</v>
+      </c>
+      <c r="E13" t="str">
+        <v>non</v>
+      </c>
+      <c r="F13" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>3333.33</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>333.33</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="str">
+        <v>--</v>
+      </c>
+      <c r="O13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>905/LF/TADLA OUARDIGHA ZAYANE</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v>BENNIS YOUSRA</v>
+      </c>
+      <c r="E14" t="str">
+        <v>non</v>
+      </c>
+      <c r="F14" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>3333.33</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>333.33</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="str">
+        <v>--</v>
+      </c>
+      <c r="O14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>905/LF/TADLA OUARDIGHA ZAYANE</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Logement de fonction</v>
+      </c>
+      <c r="C15" t="str">
+        <v>CIN605</v>
+      </c>
+      <c r="D15" t="str">
+        <v>SOFIA BADRANE</v>
+      </c>
+      <c r="E15" t="str">
+        <v>non</v>
+      </c>
+      <c r="F15" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>3333.33</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>333.33</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="str">
+        <v>--</v>
+      </c>
+      <c r="O15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>035/TES/AV1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="C16" t="str">
+        <v>IR801997</v>
+      </c>
+      <c r="D16" t="str">
+        <v>NOUBAIL MOHAMMED</v>
+      </c>
+      <c r="E16" t="str">
+        <v>non</v>
+      </c>
+      <c r="F16" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" t="str">
+        <v>--</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <v>--</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1000</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16" t="str">
+        <v>--</v>
+      </c>
+      <c r="O16">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>035/TES/AV1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="C17" t="str">
+        <v>IR801997</v>
+      </c>
+      <c r="D17" t="str">
+        <v>NOUBAIL MOHAMMED</v>
+      </c>
+      <c r="E17" t="str">
+        <v>non</v>
+      </c>
+      <c r="F17" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>4000</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>400</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="str">
+        <v>--</v>
+      </c>
+      <c r="O17">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B6" t="str">
+      <c r="B18" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C6" t="str">
+      <c r="C18" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" t="str">
+      <c r="D18" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" t="str">
+      <c r="E18" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F6" t="str">
+      <c r="F18" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G6" t="str">
+      <c r="G18" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1350</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>23150</v>
+      <c r="H18">
+        <v>46999.99</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3124.99</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1000</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>44775</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O18"/>
   </ignoredErrors>
 </worksheet>
 </file>